--- a/dados/equiparia.xlsx
+++ b/dados/equiparia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,11 +502,11 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>499.46</v>
+        <v>525.75</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:356684895#searchVariation=MLB22144397&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=e033d5ad-0701-417d-a9ac-ba8b1a35d781</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:356684895#searchVariation=MLB22144397&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>634.4</v>
+        <v>738.21</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:356684895#searchVariation=MLB21392652&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=e033d5ad-0701-417d-a9ac-ba8b1a35d781</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:356684895#searchVariation=MLB24154371&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,16 +583,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>122.55</v>
+        <v>731.39</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -611,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:356684895#searchVariation=MLB28557249&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=e033d5ad-0701-417d-a9ac-ba8b1a35d781</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:356684895#searchVariation=MLB24834408&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,16 +628,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>443.07</v>
+        <v>523.63</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -646,24 +646,24 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:356684895#searchVariation=MLB21320712&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=e033d5ad-0701-417d-a9ac-ba8b1a35d781</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:356684895#searchVariation=MLB21455208&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=fae56922-4d9c-470a-b685-60d4c7176640</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,21 +673,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>347.03</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>466.39</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -697,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:356684895#searchVariation=MLB33435981&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=e033d5ad-0701-417d-a9ac-ba8b1a35d781</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:356684895#searchVariation=MLB21320712&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,20 +718,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>694.8200000000001</v>
+        <v>129</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -742,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:356684895#searchVariation=MLB24834408&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=e033d5ad-0701-417d-a9ac-ba8b1a35d781</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:356684895#searchVariation=MLB28557249&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,20 +763,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>523.63</v>
+        <v>375.89</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -782,19 +786,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:356684895#searchVariation=MLB21455208&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=af828e30-e980-4f23-9275-c5a347e78807</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:356684895#searchVariation=MLB23456525&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=fae56922-4d9c-470a-b685-60d4c7176640</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,20 +808,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>689.13</v>
+        <v>634.4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -832,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:356684895#searchVariation=MLB24154371&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=af828e30-e980-4f23-9275-c5a347e78807</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:356684895#searchVariation=MLB21392652&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,16 +853,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>370.31</v>
+        <v>552.34</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -877,14 +881,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:356684895#searchVariation=MLB23456525&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=af828e30-e980-4f23-9275-c5a347e78807</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:356684895#searchVariation=MLB23998473&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=a5c0f889-5ce5-4e8c-861d-4ff4dc56c43c</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,22 +898,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>536.26</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>365.3</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -922,14 +922,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:356684895#searchVariation=MLB23998473&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=eea83ea8-2820-45af-9157-c12d4dd1d026</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:356684895#searchVariation=MLB33435981&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=028cae01-1097-411d-843f-c8cfbbf6c027</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>397.1</v>
+        <v>402.13</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -967,14 +967,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641910914-fonte-jfa-carregador-de-bateria-60a-storm-lite-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D02203e61-e9cc-4a7f-8e43-0662f24ca4bd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4641910914-fonte-jfa-carregador-de-bateria-60a-storm-lite-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd73b9609-3a88-4b27-852b-aaa2f04f46f1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>372.21</v>
+        <v>391.8</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
@@ -1008,14 +1008,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3674713347-fonte-jfa-carregador-de-bateria-40a-storm-lite-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D02203e61-e9cc-4a7f-8e43-0662f24ca4bd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3674713347-fonte-jfa-carregador-de-bateria-40a-storm-lite-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd73b9609-3a88-4b27-852b-aaa2f04f46f1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,16 +1025,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 120a Storm Lite</t>
+          <t>Fonte Jfa Carregador De Bateria 60a Storm Plus</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>573.36</v>
+        <v>473.28</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1053,14 +1053,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641834126-fonte-jfa-carregador-de-bateria-120a-storm-lite-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D41efe55d-2c66-4e89-b848-3d706fba5ffa</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4641858998-fonte-jfa-carregador-de-bateria-60a-storm-plus-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd73b9609-3a88-4b27-852b-aaa2f04f46f1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,20 +1070,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 70a Storm Lite</t>
+          <t>Fonte Jfa Carregador De Bateria 120a Storm Lite</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>408.73</v>
+        <v>590.55</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1093,19 +1093,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641859900-fonte-jfa-carregador-de-bateria-70a-storm-lite-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D41efe55d-2c66-4e89-b848-3d706fba5ffa</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4641834126-fonte-jfa-carregador-de-bateria-120a-storm-lite-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd6786a8a-b2a3-4d6a-915f-4b70c1ac8d93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,20 +1115,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador 1ª Linha</t>
+          <t>Fonte Jfa Carregador De Bateria 70a Storm Lite</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>674.6799999999999</v>
+        <v>420.99</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1138,19 +1138,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2185777729-fonte-automotiva-120a-amperes-jfa-carregador-1-linha-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D04fe40af-0d7b-43e8-ab67-8f07e13b5e6f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4641859900-fonte-jfa-carregador-de-bateria-70a-storm-lite-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd6786a8a-b2a3-4d6a-915f-4b70c1ac8d93</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>739</v>
+        <v>702.28</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1183,19 +1183,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641907468-fonte-jfa-carregador-de-bateria-200a-storm-lite-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd547d5db-4936-4c8f-b83d-b11bb7eca845</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4641857040-fonte-jfa-carregador-de-bateria-200a-storm-lite-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd6786a8a-b2a3-4d6a-915f-4b70c1ac8d93</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1205,18 +1205,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Conversor Jfa Rca Comando Remoto Slim Mais Vendido</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador 1ª Linha</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>56.05</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1229,14 +1233,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2005973220-conversor-jfa-rca-comando-remoto-slim-mais-vendido-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc9a892d6-b3b6-4b47-a8b9-c24d42e37dff</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2185777729-fonte-automotiva-120a-amperes-jfa-carregador-1-linha-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da00dd6f9-6b40-45a3-946a-ac57a19fb5f1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1246,22 +1250,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 70a Storm Lite</t>
+          <t>Conversor Jfa Rca Comando Remoto Slim Mais Vendido</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>434.42</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1274,14 +1274,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641848246-fonte-jfa-carregador-de-bateria-70a-storm-lite-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd91b4636-3e72-4a2d-b9f9-dca389b8b73f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2005973220-conversor-jfa-rca-comando-remoto-slim-mais-vendido-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8e7923e-3238-433f-9464-2081a31c1924</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1291,18 +1291,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Conversor Jfa Rca Comando Remoto Slim</t>
+          <t>Fonte Jfa Carregador De Bateria 70a Storm Lite</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>56.05</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>447.45</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1310,19 +1314,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1988968762-conversor-jfa-rca-comando-remoto-slim-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df57c0aed-ff8c-4435-b054-11f99aa2c57f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4641848246-fonte-jfa-carregador-de-bateria-70a-storm-lite-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f126f4b-38bf-45a5-88f3-e2608801129e</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1332,22 +1336,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 60a Storm Plus</t>
+          <t>Conversor Jfa Rca Comando Remoto Slim</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1355,57 +1355,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641858998-fonte-jfa-carregador-de-bateria-60a-storm-plus-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dac14112b-a334-4ce0-8628-df35152460de</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>equiparia</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Fonte Jfa Carregador De Bateria 120a Bob Storm</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641879436-fonte-jfa-carregador-de-bateria-120a-bob-storm-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc25a0eb2-12f4-49a7-b3fa-b3f67ab60adf</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1988968762-conversor-jfa-rca-comando-remoto-slim-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D52da9ba8-dd92-48a4-9e7a-b2b9d8b394ca</t>
         </is>
       </c>
     </row>

--- a/dados/equiparia.xlsx
+++ b/dados/equiparia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>525.75</v>
+        <v>514.4400000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:356684895#searchVariation=MLB22144397&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:356684895#wid=MLB4681854350&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=593d1ed1-4b0e-4e53-a5bf-237390b67998</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>738.21</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:356684895#searchVariation=MLB24154371&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:356684895#wid=MLB3690510355&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=593d1ed1-4b0e-4e53-a5bf-237390b67998</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,22 +583,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>731.39</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>414.87</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -606,19 +602,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:356684895#searchVariation=MLB24834408&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:356684895#wid=MLB4710487476&amp;sid=search&amp;searchVariation=MLB33435981&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=5528670e-544b-42e1-bab4-8605e4a06836</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +624,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t xml:space="preserve">Fonte Carregador 12 À 15v Jfa Storm 40a Bivolt 110/220 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>523.63</v>
+        <v>414.87</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -651,19 +647,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:356684895#searchVariation=MLB21455208&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=fae56922-4d9c-470a-b685-60d4c7176640</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2185698185-fonte-carregador-12-15v-jfa-storm-40a-bivolt-110220-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd82f450e-8c88-4f53-8ede-286ae35178d1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,16 +669,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Jfa Carregador De Bateria 120a Bob Storm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>466.39</v>
+        <v>555.9299999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -691,24 +687,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:356684895#searchVariation=MLB21320712&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4641879436-fonte-jfa-carregador-de-bateria-120a-bob-storm-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db92a28c4-825d-4d66-b32b-f11497e0fb93</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,22 +714,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Fonte Jfa Carregador De Bateria 40a Storm Lite</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>129</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>445.98</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -746,14 +738,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:356684895#searchVariation=MLB28557249&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3674713347-fonte-jfa-carregador-de-bateria-40a-storm-lite-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db92a28c4-825d-4d66-b32b-f11497e0fb93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +755,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Jfa Carregador De Bateria 70a Storm Lite</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>375.89</v>
+        <v>420.99</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -791,14 +783,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:356684895#searchVariation=MLB23456525&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=fae56922-4d9c-470a-b685-60d4c7176640</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4641859900-fonte-jfa-carregador-de-bateria-70a-storm-lite-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e1b509e-52f0-4794-97ae-7701a80a0dce</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,20 +800,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Jfa Carregador De Bateria 200a Storm Lite</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>634.4</v>
+        <v>702.28</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -836,14 +828,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:356684895#searchVariation=MLB21392652&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8856cbd-7ab7-463e-9d20-de0cbeede0d3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4641857040-fonte-jfa-carregador-de-bateria-200a-storm-lite-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2aad0f32-6c19-45dd-aa24-9468613dcb64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,7 +845,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Jfa Carregador De Bateria 120a Storm Lite</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -862,7 +854,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>552.34</v>
+        <v>590.55</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -876,19 +868,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:356684895#searchVariation=MLB23998473&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=a5c0f889-5ce5-4e8c-861d-4ff4dc56c43c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4641834126-fonte-jfa-carregador-de-bateria-120a-storm-lite-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2aad0f32-6c19-45dd-aa24-9468613dcb64</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,7 +890,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Conversor Jfa Rca Comando Remoto Slim Mais Vendido</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -907,7 +899,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>365.3</v>
+        <v>59</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
@@ -917,19 +909,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:356684895#searchVariation=MLB33435981&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=028cae01-1097-411d-843f-c8cfbbf6c027</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2005973220-conversor-jfa-rca-comando-remoto-slim-mais-vendido-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0a67da80-4ba4-4787-bacd-750b2fa726bf</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,22 +931,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carregador De Bateria 60a Storm Lite</t>
+          <t>Conversor Jfa Rca Comando Remoto Slim</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>402.13</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -962,405 +950,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641910914-fonte-jfa-carregador-de-bateria-60a-storm-lite-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd73b9609-3a88-4b27-852b-aaa2f04f46f1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>equiparia</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Fonte Jfa Carregador De Bateria 40a Storm Lite</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>391.8</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3674713347-fonte-jfa-carregador-de-bateria-40a-storm-lite-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd73b9609-3a88-4b27-852b-aaa2f04f46f1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>equiparia</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Fonte Jfa Carregador De Bateria 60a Storm Plus</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641858998-fonte-jfa-carregador-de-bateria-60a-storm-plus-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd73b9609-3a88-4b27-852b-aaa2f04f46f1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>equiparia</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Fonte Jfa Carregador De Bateria 120a Storm Lite</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>590.55</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641834126-fonte-jfa-carregador-de-bateria-120a-storm-lite-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd6786a8a-b2a3-4d6a-915f-4b70c1ac8d93</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>equiparia</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Fonte Jfa Carregador De Bateria 70a Storm Lite</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>420.99</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641859900-fonte-jfa-carregador-de-bateria-70a-storm-lite-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd6786a8a-b2a3-4d6a-915f-4b70c1ac8d93</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>equiparia</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Fonte Jfa Carregador De Bateria 200a Storm Lite</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>702.28</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641857040-fonte-jfa-carregador-de-bateria-200a-storm-lite-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd6786a8a-b2a3-4d6a-915f-4b70c1ac8d93</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>equiparia</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador 1ª Linha</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2185777729-fonte-automotiva-120a-amperes-jfa-carregador-1-linha-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da00dd6f9-6b40-45a3-946a-ac57a19fb5f1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>equiparia</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Conversor Jfa Rca Comando Remoto Slim Mais Vendido</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>59</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2005973220-conversor-jfa-rca-comando-remoto-slim-mais-vendido-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db8e7923e-3238-433f-9464-2081a31c1924</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>equiparia</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Fonte Jfa Carregador De Bateria 70a Storm Lite</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>447.45</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4641848246-fonte-jfa-carregador-de-bateria-70a-storm-lite-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f126f4b-38bf-45a5-88f3-e2608801129e</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>01/08/2024</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>equiparia</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Conversor Jfa Rca Comando Remoto Slim</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>59</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1988968762-conversor-jfa-rca-comando-remoto-slim-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D52da9ba8-dd92-48a4-9e7a-b2b9d8b394ca</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1988968762-conversor-jfa-rca-comando-remoto-slim-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3c131bbc-f403-4e3f-9670-e0e2d89f582a</t>
         </is>
       </c>
     </row>
